--- a/kepco-web/src/main/resources/template/template_meter_value_detail.xlsx
+++ b/kepco-web/src/main/resources/template/template_meter_value_detail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eWSN\ewsnapp\ewsn-app\src\main\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LWM2M\kepco-lwm2m-5.0\kepco-web\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>read_dt</t>
   </si>
@@ -91,25 +91,70 @@
     <t>${result.read_dt}</t>
   </si>
   <si>
-    <t>순방향유효전력량</t>
-  </si>
-  <si>
-    <t>순방향무효전력량</t>
-  </si>
-  <si>
-    <t>${result.c2_sect_metervalue}</t>
-  </si>
-  <si>
     <t>검침 상세 정보</t>
   </si>
   <si>
-    <t>${result.c1_sect_metervalue}</t>
+    <t>meter_id</t>
+  </si>
+  <si>
+    <t>meter_serial</t>
+  </si>
+  <si>
+    <t>parent_branch_nm</t>
+  </si>
+  <si>
+    <t>branch_nm</t>
+  </si>
+  <si>
+    <t>meter_type</t>
+  </si>
+  <si>
+    <t>device_serial</t>
+  </si>
+  <si>
+    <t>meter_value</t>
+  </si>
+  <si>
+    <t>reg_dt</t>
+  </si>
+  <si>
+    <t>${result.meter_id}</t>
+  </si>
+  <si>
+    <t>${result.meter_serial}</t>
+  </si>
+  <si>
+    <t>${result.parent_branch_nm}</t>
+  </si>
+  <si>
+    <t>${result.branch_nm}</t>
+  </si>
+  <si>
+    <t>${result.meter_type}</t>
+  </si>
+  <si>
+    <t>${result.device_serial}</t>
+  </si>
+  <si>
+    <t>${result.meter_value}</t>
+  </si>
+  <si>
+    <t>${result.reg_dt}</t>
+  </si>
+  <si>
+    <t>no.</t>
+  </si>
+  <si>
+    <t>${result.no}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -215,12 +260,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -245,6 +289,12 @@
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,18 +604,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="245" width="9" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="6" customWidth="1"/>
+    <col min="4" max="10" width="20.77734375" style="1" customWidth="1"/>
+    <col min="11" max="245" width="9" style="1"/>
     <col min="246" max="246" width="18.6640625" style="1" customWidth="1"/>
     <col min="247" max="247" width="14.6640625" style="1" customWidth="1"/>
     <col min="248" max="248" width="21.21875" style="1" customWidth="1"/>
@@ -884,36 +935,85 @@
     <col min="16375" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="28.8" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" ht="10.199999999999999" customHeight="1"/>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="10.199999999999999" customHeight="1"/>
-    <row r="3" spans="1:3" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>4</v>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/kepco-web/src/main/resources/template/template_meter_value_detail.xlsx
+++ b/kepco-web/src/main/resources/template/template_meter_value_detail.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>read_dt</t>
   </si>
@@ -91,61 +91,79 @@
     <t>${result.read_dt}</t>
   </si>
   <si>
+    <t>meter_serial</t>
+  </si>
+  <si>
+    <t>${result.meter_serial}</t>
+  </si>
+  <si>
     <t>검침 상세 정보</t>
   </si>
   <si>
-    <t>meter_id</t>
-  </si>
-  <si>
-    <t>meter_serial</t>
-  </si>
-  <si>
-    <t>parent_branch_nm</t>
-  </si>
-  <si>
-    <t>branch_nm</t>
-  </si>
-  <si>
-    <t>meter_type</t>
-  </si>
-  <si>
-    <t>device_serial</t>
-  </si>
-  <si>
-    <t>meter_value</t>
-  </si>
-  <si>
-    <t>reg_dt</t>
-  </si>
-  <si>
-    <t>${result.meter_id}</t>
-  </si>
-  <si>
-    <t>${result.meter_serial}</t>
-  </si>
-  <si>
-    <t>${result.parent_branch_nm}</t>
-  </si>
-  <si>
-    <t>${result.branch_nm}</t>
-  </si>
-  <si>
-    <t>${result.meter_type}</t>
-  </si>
-  <si>
-    <t>${result.device_serial}</t>
-  </si>
-  <si>
-    <t>${result.meter_value}</t>
-  </si>
-  <si>
-    <t>${result.reg_dt}</t>
-  </si>
-  <si>
-    <t>no.</t>
-  </si>
-  <si>
     <t>${result.no}</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>mtime</t>
+  </si>
+  <si>
+    <t>${result.mtime}</t>
+  </si>
+  <si>
+    <t>itime</t>
+  </si>
+  <si>
+    <t>${result.itime}</t>
+  </si>
+  <si>
+    <t>c1_metervalue</t>
+  </si>
+  <si>
+    <t>${result.c1_metervalue}</t>
+  </si>
+  <si>
+    <t>c2_metervalue</t>
+  </si>
+  <si>
+    <t>${result.c2_metervalue}</t>
+  </si>
+  <si>
+    <t>c3_metervalue</t>
+  </si>
+  <si>
+    <t>${result.c3_metervalue}</t>
+  </si>
+  <si>
+    <t>c4_metervalue</t>
+  </si>
+  <si>
+    <t>${result.c4_metervalue}</t>
+  </si>
+  <si>
+    <t>c5_metervalue</t>
+  </si>
+  <si>
+    <t>${result.c5_metervalue}</t>
+  </si>
+  <si>
+    <t>c6_metervalue</t>
+  </si>
+  <si>
+    <t>${result.c6_metervalue}</t>
+  </si>
+  <si>
+    <t>c7_metervalue</t>
+  </si>
+  <si>
+    <t>${result.c7_metervalue}</t>
+  </si>
+  <si>
+    <t>c8_metervalue</t>
+  </si>
+  <si>
+    <t>${result.c8_metervalue}</t>
   </si>
 </sst>
 </file>
@@ -260,15 +278,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -284,17 +306,12 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,416 +621,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="6" customWidth="1"/>
-    <col min="4" max="10" width="20.77734375" style="1" customWidth="1"/>
-    <col min="11" max="245" width="9" style="1"/>
-    <col min="246" max="246" width="18.6640625" style="1" customWidth="1"/>
-    <col min="247" max="247" width="14.6640625" style="1" customWidth="1"/>
-    <col min="248" max="248" width="21.21875" style="1" customWidth="1"/>
-    <col min="249" max="249" width="16.88671875" style="1" customWidth="1"/>
-    <col min="250" max="501" width="9" style="1"/>
-    <col min="502" max="502" width="18.6640625" style="1" customWidth="1"/>
-    <col min="503" max="503" width="14.6640625" style="1" customWidth="1"/>
-    <col min="504" max="504" width="21.21875" style="1" customWidth="1"/>
-    <col min="505" max="505" width="16.88671875" style="1" customWidth="1"/>
-    <col min="506" max="757" width="9" style="1"/>
-    <col min="758" max="758" width="18.6640625" style="1" customWidth="1"/>
-    <col min="759" max="759" width="14.6640625" style="1" customWidth="1"/>
-    <col min="760" max="760" width="21.21875" style="1" customWidth="1"/>
-    <col min="761" max="761" width="16.88671875" style="1" customWidth="1"/>
-    <col min="762" max="1013" width="9" style="1"/>
-    <col min="1014" max="1014" width="18.6640625" style="1" customWidth="1"/>
-    <col min="1015" max="1015" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1016" max="1016" width="21.21875" style="1" customWidth="1"/>
-    <col min="1017" max="1017" width="16.88671875" style="1" customWidth="1"/>
-    <col min="1018" max="1269" width="9" style="1"/>
-    <col min="1270" max="1270" width="18.6640625" style="1" customWidth="1"/>
-    <col min="1271" max="1271" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1272" max="1272" width="21.21875" style="1" customWidth="1"/>
-    <col min="1273" max="1273" width="16.88671875" style="1" customWidth="1"/>
-    <col min="1274" max="1525" width="9" style="1"/>
-    <col min="1526" max="1526" width="18.6640625" style="1" customWidth="1"/>
-    <col min="1527" max="1527" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1528" max="1528" width="21.21875" style="1" customWidth="1"/>
-    <col min="1529" max="1529" width="16.88671875" style="1" customWidth="1"/>
-    <col min="1530" max="1781" width="9" style="1"/>
-    <col min="1782" max="1782" width="18.6640625" style="1" customWidth="1"/>
-    <col min="1783" max="1783" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1784" max="1784" width="21.21875" style="1" customWidth="1"/>
-    <col min="1785" max="1785" width="16.88671875" style="1" customWidth="1"/>
-    <col min="1786" max="2037" width="9" style="1"/>
-    <col min="2038" max="2038" width="18.6640625" style="1" customWidth="1"/>
-    <col min="2039" max="2039" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2040" max="2040" width="21.21875" style="1" customWidth="1"/>
-    <col min="2041" max="2041" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2042" max="2293" width="9" style="1"/>
-    <col min="2294" max="2294" width="18.6640625" style="1" customWidth="1"/>
-    <col min="2295" max="2295" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2296" max="2296" width="21.21875" style="1" customWidth="1"/>
-    <col min="2297" max="2297" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2298" max="2549" width="9" style="1"/>
-    <col min="2550" max="2550" width="18.6640625" style="1" customWidth="1"/>
-    <col min="2551" max="2551" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2552" max="2552" width="21.21875" style="1" customWidth="1"/>
-    <col min="2553" max="2553" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2554" max="2805" width="9" style="1"/>
-    <col min="2806" max="2806" width="18.6640625" style="1" customWidth="1"/>
-    <col min="2807" max="2807" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2808" max="2808" width="21.21875" style="1" customWidth="1"/>
-    <col min="2809" max="2809" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2810" max="3061" width="9" style="1"/>
-    <col min="3062" max="3062" width="18.6640625" style="1" customWidth="1"/>
-    <col min="3063" max="3063" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3064" max="3064" width="21.21875" style="1" customWidth="1"/>
-    <col min="3065" max="3065" width="16.88671875" style="1" customWidth="1"/>
-    <col min="3066" max="3317" width="9" style="1"/>
-    <col min="3318" max="3318" width="18.6640625" style="1" customWidth="1"/>
-    <col min="3319" max="3319" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3320" max="3320" width="21.21875" style="1" customWidth="1"/>
-    <col min="3321" max="3321" width="16.88671875" style="1" customWidth="1"/>
-    <col min="3322" max="3573" width="9" style="1"/>
-    <col min="3574" max="3574" width="18.6640625" style="1" customWidth="1"/>
-    <col min="3575" max="3575" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3576" max="3576" width="21.21875" style="1" customWidth="1"/>
-    <col min="3577" max="3577" width="16.88671875" style="1" customWidth="1"/>
-    <col min="3578" max="3829" width="9" style="1"/>
-    <col min="3830" max="3830" width="18.6640625" style="1" customWidth="1"/>
-    <col min="3831" max="3831" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3832" max="3832" width="21.21875" style="1" customWidth="1"/>
-    <col min="3833" max="3833" width="16.88671875" style="1" customWidth="1"/>
-    <col min="3834" max="4085" width="9" style="1"/>
-    <col min="4086" max="4086" width="18.6640625" style="1" customWidth="1"/>
-    <col min="4087" max="4087" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4088" max="4088" width="21.21875" style="1" customWidth="1"/>
-    <col min="4089" max="4089" width="16.88671875" style="1" customWidth="1"/>
-    <col min="4090" max="4341" width="9" style="1"/>
-    <col min="4342" max="4342" width="18.6640625" style="1" customWidth="1"/>
-    <col min="4343" max="4343" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4344" max="4344" width="21.21875" style="1" customWidth="1"/>
-    <col min="4345" max="4345" width="16.88671875" style="1" customWidth="1"/>
-    <col min="4346" max="4597" width="9" style="1"/>
-    <col min="4598" max="4598" width="18.6640625" style="1" customWidth="1"/>
-    <col min="4599" max="4599" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4600" max="4600" width="21.21875" style="1" customWidth="1"/>
-    <col min="4601" max="4601" width="16.88671875" style="1" customWidth="1"/>
-    <col min="4602" max="4853" width="9" style="1"/>
-    <col min="4854" max="4854" width="18.6640625" style="1" customWidth="1"/>
-    <col min="4855" max="4855" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4856" max="4856" width="21.21875" style="1" customWidth="1"/>
-    <col min="4857" max="4857" width="16.88671875" style="1" customWidth="1"/>
-    <col min="4858" max="5109" width="9" style="1"/>
-    <col min="5110" max="5110" width="18.6640625" style="1" customWidth="1"/>
-    <col min="5111" max="5111" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5112" max="5112" width="21.21875" style="1" customWidth="1"/>
-    <col min="5113" max="5113" width="16.88671875" style="1" customWidth="1"/>
-    <col min="5114" max="5365" width="9" style="1"/>
-    <col min="5366" max="5366" width="18.6640625" style="1" customWidth="1"/>
-    <col min="5367" max="5367" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5368" max="5368" width="21.21875" style="1" customWidth="1"/>
-    <col min="5369" max="5369" width="16.88671875" style="1" customWidth="1"/>
-    <col min="5370" max="5621" width="9" style="1"/>
-    <col min="5622" max="5622" width="18.6640625" style="1" customWidth="1"/>
-    <col min="5623" max="5623" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5624" max="5624" width="21.21875" style="1" customWidth="1"/>
-    <col min="5625" max="5625" width="16.88671875" style="1" customWidth="1"/>
-    <col min="5626" max="5877" width="9" style="1"/>
-    <col min="5878" max="5878" width="18.6640625" style="1" customWidth="1"/>
-    <col min="5879" max="5879" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5880" max="5880" width="21.21875" style="1" customWidth="1"/>
-    <col min="5881" max="5881" width="16.88671875" style="1" customWidth="1"/>
-    <col min="5882" max="6133" width="9" style="1"/>
-    <col min="6134" max="6134" width="18.6640625" style="1" customWidth="1"/>
-    <col min="6135" max="6135" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6136" max="6136" width="21.21875" style="1" customWidth="1"/>
-    <col min="6137" max="6137" width="16.88671875" style="1" customWidth="1"/>
-    <col min="6138" max="6389" width="9" style="1"/>
-    <col min="6390" max="6390" width="18.6640625" style="1" customWidth="1"/>
-    <col min="6391" max="6391" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6392" max="6392" width="21.21875" style="1" customWidth="1"/>
-    <col min="6393" max="6393" width="16.88671875" style="1" customWidth="1"/>
-    <col min="6394" max="6645" width="9" style="1"/>
-    <col min="6646" max="6646" width="18.6640625" style="1" customWidth="1"/>
-    <col min="6647" max="6647" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6648" max="6648" width="21.21875" style="1" customWidth="1"/>
-    <col min="6649" max="6649" width="16.88671875" style="1" customWidth="1"/>
-    <col min="6650" max="6901" width="9" style="1"/>
-    <col min="6902" max="6902" width="18.6640625" style="1" customWidth="1"/>
-    <col min="6903" max="6903" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6904" max="6904" width="21.21875" style="1" customWidth="1"/>
-    <col min="6905" max="6905" width="16.88671875" style="1" customWidth="1"/>
-    <col min="6906" max="7157" width="9" style="1"/>
-    <col min="7158" max="7158" width="18.6640625" style="1" customWidth="1"/>
-    <col min="7159" max="7159" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7160" max="7160" width="21.21875" style="1" customWidth="1"/>
-    <col min="7161" max="7161" width="16.88671875" style="1" customWidth="1"/>
-    <col min="7162" max="7413" width="9" style="1"/>
-    <col min="7414" max="7414" width="18.6640625" style="1" customWidth="1"/>
-    <col min="7415" max="7415" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7416" max="7416" width="21.21875" style="1" customWidth="1"/>
-    <col min="7417" max="7417" width="16.88671875" style="1" customWidth="1"/>
-    <col min="7418" max="7669" width="9" style="1"/>
-    <col min="7670" max="7670" width="18.6640625" style="1" customWidth="1"/>
-    <col min="7671" max="7671" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7672" max="7672" width="21.21875" style="1" customWidth="1"/>
-    <col min="7673" max="7673" width="16.88671875" style="1" customWidth="1"/>
-    <col min="7674" max="7925" width="9" style="1"/>
-    <col min="7926" max="7926" width="18.6640625" style="1" customWidth="1"/>
-    <col min="7927" max="7927" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7928" max="7928" width="21.21875" style="1" customWidth="1"/>
-    <col min="7929" max="7929" width="16.88671875" style="1" customWidth="1"/>
-    <col min="7930" max="8181" width="9" style="1"/>
-    <col min="8182" max="8182" width="18.6640625" style="1" customWidth="1"/>
-    <col min="8183" max="8183" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8184" max="8184" width="21.21875" style="1" customWidth="1"/>
-    <col min="8185" max="8185" width="16.88671875" style="1" customWidth="1"/>
-    <col min="8186" max="8437" width="9" style="1"/>
-    <col min="8438" max="8438" width="18.6640625" style="1" customWidth="1"/>
-    <col min="8439" max="8439" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8440" max="8440" width="21.21875" style="1" customWidth="1"/>
-    <col min="8441" max="8441" width="16.88671875" style="1" customWidth="1"/>
-    <col min="8442" max="8693" width="9" style="1"/>
-    <col min="8694" max="8694" width="18.6640625" style="1" customWidth="1"/>
-    <col min="8695" max="8695" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8696" max="8696" width="21.21875" style="1" customWidth="1"/>
-    <col min="8697" max="8697" width="16.88671875" style="1" customWidth="1"/>
-    <col min="8698" max="8949" width="9" style="1"/>
-    <col min="8950" max="8950" width="18.6640625" style="1" customWidth="1"/>
-    <col min="8951" max="8951" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8952" max="8952" width="21.21875" style="1" customWidth="1"/>
-    <col min="8953" max="8953" width="16.88671875" style="1" customWidth="1"/>
-    <col min="8954" max="9205" width="9" style="1"/>
-    <col min="9206" max="9206" width="18.6640625" style="1" customWidth="1"/>
-    <col min="9207" max="9207" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9208" max="9208" width="21.21875" style="1" customWidth="1"/>
-    <col min="9209" max="9209" width="16.88671875" style="1" customWidth="1"/>
-    <col min="9210" max="9461" width="9" style="1"/>
-    <col min="9462" max="9462" width="18.6640625" style="1" customWidth="1"/>
-    <col min="9463" max="9463" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9464" max="9464" width="21.21875" style="1" customWidth="1"/>
-    <col min="9465" max="9465" width="16.88671875" style="1" customWidth="1"/>
-    <col min="9466" max="9717" width="9" style="1"/>
-    <col min="9718" max="9718" width="18.6640625" style="1" customWidth="1"/>
-    <col min="9719" max="9719" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9720" max="9720" width="21.21875" style="1" customWidth="1"/>
-    <col min="9721" max="9721" width="16.88671875" style="1" customWidth="1"/>
-    <col min="9722" max="9973" width="9" style="1"/>
-    <col min="9974" max="9974" width="18.6640625" style="1" customWidth="1"/>
-    <col min="9975" max="9975" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9976" max="9976" width="21.21875" style="1" customWidth="1"/>
-    <col min="9977" max="9977" width="16.88671875" style="1" customWidth="1"/>
-    <col min="9978" max="10229" width="9" style="1"/>
-    <col min="10230" max="10230" width="18.6640625" style="1" customWidth="1"/>
-    <col min="10231" max="10231" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10232" max="10232" width="21.21875" style="1" customWidth="1"/>
-    <col min="10233" max="10233" width="16.88671875" style="1" customWidth="1"/>
-    <col min="10234" max="10485" width="9" style="1"/>
-    <col min="10486" max="10486" width="18.6640625" style="1" customWidth="1"/>
-    <col min="10487" max="10487" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10488" max="10488" width="21.21875" style="1" customWidth="1"/>
-    <col min="10489" max="10489" width="16.88671875" style="1" customWidth="1"/>
-    <col min="10490" max="10741" width="9" style="1"/>
-    <col min="10742" max="10742" width="18.6640625" style="1" customWidth="1"/>
-    <col min="10743" max="10743" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10744" max="10744" width="21.21875" style="1" customWidth="1"/>
-    <col min="10745" max="10745" width="16.88671875" style="1" customWidth="1"/>
-    <col min="10746" max="10997" width="9" style="1"/>
-    <col min="10998" max="10998" width="18.6640625" style="1" customWidth="1"/>
-    <col min="10999" max="10999" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11000" max="11000" width="21.21875" style="1" customWidth="1"/>
-    <col min="11001" max="11001" width="16.88671875" style="1" customWidth="1"/>
-    <col min="11002" max="11253" width="9" style="1"/>
-    <col min="11254" max="11254" width="18.6640625" style="1" customWidth="1"/>
-    <col min="11255" max="11255" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11256" max="11256" width="21.21875" style="1" customWidth="1"/>
-    <col min="11257" max="11257" width="16.88671875" style="1" customWidth="1"/>
-    <col min="11258" max="11509" width="9" style="1"/>
-    <col min="11510" max="11510" width="18.6640625" style="1" customWidth="1"/>
-    <col min="11511" max="11511" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11512" max="11512" width="21.21875" style="1" customWidth="1"/>
-    <col min="11513" max="11513" width="16.88671875" style="1" customWidth="1"/>
-    <col min="11514" max="11765" width="9" style="1"/>
-    <col min="11766" max="11766" width="18.6640625" style="1" customWidth="1"/>
-    <col min="11767" max="11767" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11768" max="11768" width="21.21875" style="1" customWidth="1"/>
-    <col min="11769" max="11769" width="16.88671875" style="1" customWidth="1"/>
-    <col min="11770" max="12021" width="9" style="1"/>
-    <col min="12022" max="12022" width="18.6640625" style="1" customWidth="1"/>
-    <col min="12023" max="12023" width="14.6640625" style="1" customWidth="1"/>
-    <col min="12024" max="12024" width="21.21875" style="1" customWidth="1"/>
-    <col min="12025" max="12025" width="16.88671875" style="1" customWidth="1"/>
-    <col min="12026" max="12277" width="9" style="1"/>
-    <col min="12278" max="12278" width="18.6640625" style="1" customWidth="1"/>
-    <col min="12279" max="12279" width="14.6640625" style="1" customWidth="1"/>
-    <col min="12280" max="12280" width="21.21875" style="1" customWidth="1"/>
-    <col min="12281" max="12281" width="16.88671875" style="1" customWidth="1"/>
-    <col min="12282" max="12533" width="9" style="1"/>
-    <col min="12534" max="12534" width="18.6640625" style="1" customWidth="1"/>
-    <col min="12535" max="12535" width="14.6640625" style="1" customWidth="1"/>
-    <col min="12536" max="12536" width="21.21875" style="1" customWidth="1"/>
-    <col min="12537" max="12537" width="16.88671875" style="1" customWidth="1"/>
-    <col min="12538" max="12789" width="9" style="1"/>
-    <col min="12790" max="12790" width="18.6640625" style="1" customWidth="1"/>
-    <col min="12791" max="12791" width="14.6640625" style="1" customWidth="1"/>
-    <col min="12792" max="12792" width="21.21875" style="1" customWidth="1"/>
-    <col min="12793" max="12793" width="16.88671875" style="1" customWidth="1"/>
-    <col min="12794" max="13045" width="9" style="1"/>
-    <col min="13046" max="13046" width="18.6640625" style="1" customWidth="1"/>
-    <col min="13047" max="13047" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13048" max="13048" width="21.21875" style="1" customWidth="1"/>
-    <col min="13049" max="13049" width="16.88671875" style="1" customWidth="1"/>
-    <col min="13050" max="13301" width="9" style="1"/>
-    <col min="13302" max="13302" width="18.6640625" style="1" customWidth="1"/>
-    <col min="13303" max="13303" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13304" max="13304" width="21.21875" style="1" customWidth="1"/>
-    <col min="13305" max="13305" width="16.88671875" style="1" customWidth="1"/>
-    <col min="13306" max="13557" width="9" style="1"/>
-    <col min="13558" max="13558" width="18.6640625" style="1" customWidth="1"/>
-    <col min="13559" max="13559" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13560" max="13560" width="21.21875" style="1" customWidth="1"/>
-    <col min="13561" max="13561" width="16.88671875" style="1" customWidth="1"/>
-    <col min="13562" max="13813" width="9" style="1"/>
-    <col min="13814" max="13814" width="18.6640625" style="1" customWidth="1"/>
-    <col min="13815" max="13815" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13816" max="13816" width="21.21875" style="1" customWidth="1"/>
-    <col min="13817" max="13817" width="16.88671875" style="1" customWidth="1"/>
-    <col min="13818" max="14069" width="9" style="1"/>
-    <col min="14070" max="14070" width="18.6640625" style="1" customWidth="1"/>
-    <col min="14071" max="14071" width="14.6640625" style="1" customWidth="1"/>
-    <col min="14072" max="14072" width="21.21875" style="1" customWidth="1"/>
-    <col min="14073" max="14073" width="16.88671875" style="1" customWidth="1"/>
-    <col min="14074" max="14325" width="9" style="1"/>
-    <col min="14326" max="14326" width="18.6640625" style="1" customWidth="1"/>
-    <col min="14327" max="14327" width="14.6640625" style="1" customWidth="1"/>
-    <col min="14328" max="14328" width="21.21875" style="1" customWidth="1"/>
-    <col min="14329" max="14329" width="16.88671875" style="1" customWidth="1"/>
-    <col min="14330" max="14581" width="9" style="1"/>
-    <col min="14582" max="14582" width="18.6640625" style="1" customWidth="1"/>
-    <col min="14583" max="14583" width="14.6640625" style="1" customWidth="1"/>
-    <col min="14584" max="14584" width="21.21875" style="1" customWidth="1"/>
-    <col min="14585" max="14585" width="16.88671875" style="1" customWidth="1"/>
-    <col min="14586" max="14837" width="9" style="1"/>
-    <col min="14838" max="14838" width="18.6640625" style="1" customWidth="1"/>
-    <col min="14839" max="14839" width="14.6640625" style="1" customWidth="1"/>
-    <col min="14840" max="14840" width="21.21875" style="1" customWidth="1"/>
-    <col min="14841" max="14841" width="16.88671875" style="1" customWidth="1"/>
-    <col min="14842" max="15093" width="9" style="1"/>
-    <col min="15094" max="15094" width="18.6640625" style="1" customWidth="1"/>
-    <col min="15095" max="15095" width="14.6640625" style="1" customWidth="1"/>
-    <col min="15096" max="15096" width="21.21875" style="1" customWidth="1"/>
-    <col min="15097" max="15097" width="16.88671875" style="1" customWidth="1"/>
-    <col min="15098" max="15349" width="9" style="1"/>
-    <col min="15350" max="15350" width="18.6640625" style="1" customWidth="1"/>
-    <col min="15351" max="15351" width="14.6640625" style="1" customWidth="1"/>
-    <col min="15352" max="15352" width="21.21875" style="1" customWidth="1"/>
-    <col min="15353" max="15353" width="16.88671875" style="1" customWidth="1"/>
-    <col min="15354" max="15605" width="9" style="1"/>
-    <col min="15606" max="15606" width="18.6640625" style="1" customWidth="1"/>
-    <col min="15607" max="15607" width="14.6640625" style="1" customWidth="1"/>
-    <col min="15608" max="15608" width="21.21875" style="1" customWidth="1"/>
-    <col min="15609" max="15609" width="16.88671875" style="1" customWidth="1"/>
-    <col min="15610" max="15861" width="9" style="1"/>
-    <col min="15862" max="15862" width="18.6640625" style="1" customWidth="1"/>
-    <col min="15863" max="15863" width="14.6640625" style="1" customWidth="1"/>
-    <col min="15864" max="15864" width="21.21875" style="1" customWidth="1"/>
-    <col min="15865" max="15865" width="16.88671875" style="1" customWidth="1"/>
-    <col min="15866" max="16117" width="9" style="1"/>
-    <col min="16118" max="16118" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16119" max="16119" width="14.6640625" style="1" customWidth="1"/>
-    <col min="16120" max="16120" width="21.21875" style="1" customWidth="1"/>
-    <col min="16121" max="16121" width="16.88671875" style="1" customWidth="1"/>
-    <col min="16122" max="16374" width="9" style="1"/>
-    <col min="16375" max="16384" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="1" customWidth="1"/>
+    <col min="6" max="13" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="247" width="9" style="1"/>
+    <col min="248" max="248" width="18.6640625" style="1" customWidth="1"/>
+    <col min="249" max="249" width="14.6640625" style="1" customWidth="1"/>
+    <col min="250" max="250" width="21.21875" style="1" customWidth="1"/>
+    <col min="251" max="251" width="16.88671875" style="1" customWidth="1"/>
+    <col min="252" max="503" width="9" style="1"/>
+    <col min="504" max="504" width="18.6640625" style="1" customWidth="1"/>
+    <col min="505" max="505" width="14.6640625" style="1" customWidth="1"/>
+    <col min="506" max="506" width="21.21875" style="1" customWidth="1"/>
+    <col min="507" max="507" width="16.88671875" style="1" customWidth="1"/>
+    <col min="508" max="759" width="9" style="1"/>
+    <col min="760" max="760" width="18.6640625" style="1" customWidth="1"/>
+    <col min="761" max="761" width="14.6640625" style="1" customWidth="1"/>
+    <col min="762" max="762" width="21.21875" style="1" customWidth="1"/>
+    <col min="763" max="763" width="16.88671875" style="1" customWidth="1"/>
+    <col min="764" max="1015" width="9" style="1"/>
+    <col min="1016" max="1016" width="18.6640625" style="1" customWidth="1"/>
+    <col min="1017" max="1017" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1018" max="1018" width="21.21875" style="1" customWidth="1"/>
+    <col min="1019" max="1019" width="16.88671875" style="1" customWidth="1"/>
+    <col min="1020" max="1271" width="9" style="1"/>
+    <col min="1272" max="1272" width="18.6640625" style="1" customWidth="1"/>
+    <col min="1273" max="1273" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1274" max="1274" width="21.21875" style="1" customWidth="1"/>
+    <col min="1275" max="1275" width="16.88671875" style="1" customWidth="1"/>
+    <col min="1276" max="1527" width="9" style="1"/>
+    <col min="1528" max="1528" width="18.6640625" style="1" customWidth="1"/>
+    <col min="1529" max="1529" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1530" max="1530" width="21.21875" style="1" customWidth="1"/>
+    <col min="1531" max="1531" width="16.88671875" style="1" customWidth="1"/>
+    <col min="1532" max="1783" width="9" style="1"/>
+    <col min="1784" max="1784" width="18.6640625" style="1" customWidth="1"/>
+    <col min="1785" max="1785" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1786" max="1786" width="21.21875" style="1" customWidth="1"/>
+    <col min="1787" max="1787" width="16.88671875" style="1" customWidth="1"/>
+    <col min="1788" max="2039" width="9" style="1"/>
+    <col min="2040" max="2040" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2041" max="2041" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2042" max="2042" width="21.21875" style="1" customWidth="1"/>
+    <col min="2043" max="2043" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2044" max="2295" width="9" style="1"/>
+    <col min="2296" max="2296" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2297" max="2297" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2298" max="2298" width="21.21875" style="1" customWidth="1"/>
+    <col min="2299" max="2299" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2300" max="2551" width="9" style="1"/>
+    <col min="2552" max="2552" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2553" max="2553" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2554" max="2554" width="21.21875" style="1" customWidth="1"/>
+    <col min="2555" max="2555" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2556" max="2807" width="9" style="1"/>
+    <col min="2808" max="2808" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2809" max="2809" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2810" max="2810" width="21.21875" style="1" customWidth="1"/>
+    <col min="2811" max="2811" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2812" max="3063" width="9" style="1"/>
+    <col min="3064" max="3064" width="18.6640625" style="1" customWidth="1"/>
+    <col min="3065" max="3065" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3066" max="3066" width="21.21875" style="1" customWidth="1"/>
+    <col min="3067" max="3067" width="16.88671875" style="1" customWidth="1"/>
+    <col min="3068" max="3319" width="9" style="1"/>
+    <col min="3320" max="3320" width="18.6640625" style="1" customWidth="1"/>
+    <col min="3321" max="3321" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3322" max="3322" width="21.21875" style="1" customWidth="1"/>
+    <col min="3323" max="3323" width="16.88671875" style="1" customWidth="1"/>
+    <col min="3324" max="3575" width="9" style="1"/>
+    <col min="3576" max="3576" width="18.6640625" style="1" customWidth="1"/>
+    <col min="3577" max="3577" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3578" max="3578" width="21.21875" style="1" customWidth="1"/>
+    <col min="3579" max="3579" width="16.88671875" style="1" customWidth="1"/>
+    <col min="3580" max="3831" width="9" style="1"/>
+    <col min="3832" max="3832" width="18.6640625" style="1" customWidth="1"/>
+    <col min="3833" max="3833" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3834" max="3834" width="21.21875" style="1" customWidth="1"/>
+    <col min="3835" max="3835" width="16.88671875" style="1" customWidth="1"/>
+    <col min="3836" max="4087" width="9" style="1"/>
+    <col min="4088" max="4088" width="18.6640625" style="1" customWidth="1"/>
+    <col min="4089" max="4089" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4090" max="4090" width="21.21875" style="1" customWidth="1"/>
+    <col min="4091" max="4091" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4092" max="4343" width="9" style="1"/>
+    <col min="4344" max="4344" width="18.6640625" style="1" customWidth="1"/>
+    <col min="4345" max="4345" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4346" max="4346" width="21.21875" style="1" customWidth="1"/>
+    <col min="4347" max="4347" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4348" max="4599" width="9" style="1"/>
+    <col min="4600" max="4600" width="18.6640625" style="1" customWidth="1"/>
+    <col min="4601" max="4601" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4602" max="4602" width="21.21875" style="1" customWidth="1"/>
+    <col min="4603" max="4603" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4604" max="4855" width="9" style="1"/>
+    <col min="4856" max="4856" width="18.6640625" style="1" customWidth="1"/>
+    <col min="4857" max="4857" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4858" max="4858" width="21.21875" style="1" customWidth="1"/>
+    <col min="4859" max="4859" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4860" max="5111" width="9" style="1"/>
+    <col min="5112" max="5112" width="18.6640625" style="1" customWidth="1"/>
+    <col min="5113" max="5113" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5114" max="5114" width="21.21875" style="1" customWidth="1"/>
+    <col min="5115" max="5115" width="16.88671875" style="1" customWidth="1"/>
+    <col min="5116" max="5367" width="9" style="1"/>
+    <col min="5368" max="5368" width="18.6640625" style="1" customWidth="1"/>
+    <col min="5369" max="5369" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5370" max="5370" width="21.21875" style="1" customWidth="1"/>
+    <col min="5371" max="5371" width="16.88671875" style="1" customWidth="1"/>
+    <col min="5372" max="5623" width="9" style="1"/>
+    <col min="5624" max="5624" width="18.6640625" style="1" customWidth="1"/>
+    <col min="5625" max="5625" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5626" max="5626" width="21.21875" style="1" customWidth="1"/>
+    <col min="5627" max="5627" width="16.88671875" style="1" customWidth="1"/>
+    <col min="5628" max="5879" width="9" style="1"/>
+    <col min="5880" max="5880" width="18.6640625" style="1" customWidth="1"/>
+    <col min="5881" max="5881" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5882" max="5882" width="21.21875" style="1" customWidth="1"/>
+    <col min="5883" max="5883" width="16.88671875" style="1" customWidth="1"/>
+    <col min="5884" max="6135" width="9" style="1"/>
+    <col min="6136" max="6136" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6137" max="6137" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6138" max="6138" width="21.21875" style="1" customWidth="1"/>
+    <col min="6139" max="6139" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6140" max="6391" width="9" style="1"/>
+    <col min="6392" max="6392" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6393" max="6393" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6394" max="6394" width="21.21875" style="1" customWidth="1"/>
+    <col min="6395" max="6395" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6396" max="6647" width="9" style="1"/>
+    <col min="6648" max="6648" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6649" max="6649" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6650" max="6650" width="21.21875" style="1" customWidth="1"/>
+    <col min="6651" max="6651" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6652" max="6903" width="9" style="1"/>
+    <col min="6904" max="6904" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6905" max="6905" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6906" max="6906" width="21.21875" style="1" customWidth="1"/>
+    <col min="6907" max="6907" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6908" max="7159" width="9" style="1"/>
+    <col min="7160" max="7160" width="18.6640625" style="1" customWidth="1"/>
+    <col min="7161" max="7161" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7162" max="7162" width="21.21875" style="1" customWidth="1"/>
+    <col min="7163" max="7163" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7164" max="7415" width="9" style="1"/>
+    <col min="7416" max="7416" width="18.6640625" style="1" customWidth="1"/>
+    <col min="7417" max="7417" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7418" max="7418" width="21.21875" style="1" customWidth="1"/>
+    <col min="7419" max="7419" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7420" max="7671" width="9" style="1"/>
+    <col min="7672" max="7672" width="18.6640625" style="1" customWidth="1"/>
+    <col min="7673" max="7673" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7674" max="7674" width="21.21875" style="1" customWidth="1"/>
+    <col min="7675" max="7675" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7676" max="7927" width="9" style="1"/>
+    <col min="7928" max="7928" width="18.6640625" style="1" customWidth="1"/>
+    <col min="7929" max="7929" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7930" max="7930" width="21.21875" style="1" customWidth="1"/>
+    <col min="7931" max="7931" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7932" max="8183" width="9" style="1"/>
+    <col min="8184" max="8184" width="18.6640625" style="1" customWidth="1"/>
+    <col min="8185" max="8185" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8186" max="8186" width="21.21875" style="1" customWidth="1"/>
+    <col min="8187" max="8187" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8188" max="8439" width="9" style="1"/>
+    <col min="8440" max="8440" width="18.6640625" style="1" customWidth="1"/>
+    <col min="8441" max="8441" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8442" max="8442" width="21.21875" style="1" customWidth="1"/>
+    <col min="8443" max="8443" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8444" max="8695" width="9" style="1"/>
+    <col min="8696" max="8696" width="18.6640625" style="1" customWidth="1"/>
+    <col min="8697" max="8697" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8698" max="8698" width="21.21875" style="1" customWidth="1"/>
+    <col min="8699" max="8699" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8700" max="8951" width="9" style="1"/>
+    <col min="8952" max="8952" width="18.6640625" style="1" customWidth="1"/>
+    <col min="8953" max="8953" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8954" max="8954" width="21.21875" style="1" customWidth="1"/>
+    <col min="8955" max="8955" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8956" max="9207" width="9" style="1"/>
+    <col min="9208" max="9208" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9209" max="9209" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9210" max="9210" width="21.21875" style="1" customWidth="1"/>
+    <col min="9211" max="9211" width="16.88671875" style="1" customWidth="1"/>
+    <col min="9212" max="9463" width="9" style="1"/>
+    <col min="9464" max="9464" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9465" max="9465" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9466" max="9466" width="21.21875" style="1" customWidth="1"/>
+    <col min="9467" max="9467" width="16.88671875" style="1" customWidth="1"/>
+    <col min="9468" max="9719" width="9" style="1"/>
+    <col min="9720" max="9720" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9721" max="9721" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9722" max="9722" width="21.21875" style="1" customWidth="1"/>
+    <col min="9723" max="9723" width="16.88671875" style="1" customWidth="1"/>
+    <col min="9724" max="9975" width="9" style="1"/>
+    <col min="9976" max="9976" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9977" max="9977" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9978" max="9978" width="21.21875" style="1" customWidth="1"/>
+    <col min="9979" max="9979" width="16.88671875" style="1" customWidth="1"/>
+    <col min="9980" max="10231" width="9" style="1"/>
+    <col min="10232" max="10232" width="18.6640625" style="1" customWidth="1"/>
+    <col min="10233" max="10233" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10234" max="10234" width="21.21875" style="1" customWidth="1"/>
+    <col min="10235" max="10235" width="16.88671875" style="1" customWidth="1"/>
+    <col min="10236" max="10487" width="9" style="1"/>
+    <col min="10488" max="10488" width="18.6640625" style="1" customWidth="1"/>
+    <col min="10489" max="10489" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10490" max="10490" width="21.21875" style="1" customWidth="1"/>
+    <col min="10491" max="10491" width="16.88671875" style="1" customWidth="1"/>
+    <col min="10492" max="10743" width="9" style="1"/>
+    <col min="10744" max="10744" width="18.6640625" style="1" customWidth="1"/>
+    <col min="10745" max="10745" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10746" max="10746" width="21.21875" style="1" customWidth="1"/>
+    <col min="10747" max="10747" width="16.88671875" style="1" customWidth="1"/>
+    <col min="10748" max="10999" width="9" style="1"/>
+    <col min="11000" max="11000" width="18.6640625" style="1" customWidth="1"/>
+    <col min="11001" max="11001" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11002" max="11002" width="21.21875" style="1" customWidth="1"/>
+    <col min="11003" max="11003" width="16.88671875" style="1" customWidth="1"/>
+    <col min="11004" max="11255" width="9" style="1"/>
+    <col min="11256" max="11256" width="18.6640625" style="1" customWidth="1"/>
+    <col min="11257" max="11257" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11258" max="11258" width="21.21875" style="1" customWidth="1"/>
+    <col min="11259" max="11259" width="16.88671875" style="1" customWidth="1"/>
+    <col min="11260" max="11511" width="9" style="1"/>
+    <col min="11512" max="11512" width="18.6640625" style="1" customWidth="1"/>
+    <col min="11513" max="11513" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11514" max="11514" width="21.21875" style="1" customWidth="1"/>
+    <col min="11515" max="11515" width="16.88671875" style="1" customWidth="1"/>
+    <col min="11516" max="11767" width="9" style="1"/>
+    <col min="11768" max="11768" width="18.6640625" style="1" customWidth="1"/>
+    <col min="11769" max="11769" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11770" max="11770" width="21.21875" style="1" customWidth="1"/>
+    <col min="11771" max="11771" width="16.88671875" style="1" customWidth="1"/>
+    <col min="11772" max="12023" width="9" style="1"/>
+    <col min="12024" max="12024" width="18.6640625" style="1" customWidth="1"/>
+    <col min="12025" max="12025" width="14.6640625" style="1" customWidth="1"/>
+    <col min="12026" max="12026" width="21.21875" style="1" customWidth="1"/>
+    <col min="12027" max="12027" width="16.88671875" style="1" customWidth="1"/>
+    <col min="12028" max="12279" width="9" style="1"/>
+    <col min="12280" max="12280" width="18.6640625" style="1" customWidth="1"/>
+    <col min="12281" max="12281" width="14.6640625" style="1" customWidth="1"/>
+    <col min="12282" max="12282" width="21.21875" style="1" customWidth="1"/>
+    <col min="12283" max="12283" width="16.88671875" style="1" customWidth="1"/>
+    <col min="12284" max="12535" width="9" style="1"/>
+    <col min="12536" max="12536" width="18.6640625" style="1" customWidth="1"/>
+    <col min="12537" max="12537" width="14.6640625" style="1" customWidth="1"/>
+    <col min="12538" max="12538" width="21.21875" style="1" customWidth="1"/>
+    <col min="12539" max="12539" width="16.88671875" style="1" customWidth="1"/>
+    <col min="12540" max="12791" width="9" style="1"/>
+    <col min="12792" max="12792" width="18.6640625" style="1" customWidth="1"/>
+    <col min="12793" max="12793" width="14.6640625" style="1" customWidth="1"/>
+    <col min="12794" max="12794" width="21.21875" style="1" customWidth="1"/>
+    <col min="12795" max="12795" width="16.88671875" style="1" customWidth="1"/>
+    <col min="12796" max="13047" width="9" style="1"/>
+    <col min="13048" max="13048" width="18.6640625" style="1" customWidth="1"/>
+    <col min="13049" max="13049" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13050" max="13050" width="21.21875" style="1" customWidth="1"/>
+    <col min="13051" max="13051" width="16.88671875" style="1" customWidth="1"/>
+    <col min="13052" max="13303" width="9" style="1"/>
+    <col min="13304" max="13304" width="18.6640625" style="1" customWidth="1"/>
+    <col min="13305" max="13305" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13306" max="13306" width="21.21875" style="1" customWidth="1"/>
+    <col min="13307" max="13307" width="16.88671875" style="1" customWidth="1"/>
+    <col min="13308" max="13559" width="9" style="1"/>
+    <col min="13560" max="13560" width="18.6640625" style="1" customWidth="1"/>
+    <col min="13561" max="13561" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13562" max="13562" width="21.21875" style="1" customWidth="1"/>
+    <col min="13563" max="13563" width="16.88671875" style="1" customWidth="1"/>
+    <col min="13564" max="13815" width="9" style="1"/>
+    <col min="13816" max="13816" width="18.6640625" style="1" customWidth="1"/>
+    <col min="13817" max="13817" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13818" max="13818" width="21.21875" style="1" customWidth="1"/>
+    <col min="13819" max="13819" width="16.88671875" style="1" customWidth="1"/>
+    <col min="13820" max="14071" width="9" style="1"/>
+    <col min="14072" max="14072" width="18.6640625" style="1" customWidth="1"/>
+    <col min="14073" max="14073" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14074" max="14074" width="21.21875" style="1" customWidth="1"/>
+    <col min="14075" max="14075" width="16.88671875" style="1" customWidth="1"/>
+    <col min="14076" max="14327" width="9" style="1"/>
+    <col min="14328" max="14328" width="18.6640625" style="1" customWidth="1"/>
+    <col min="14329" max="14329" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14330" max="14330" width="21.21875" style="1" customWidth="1"/>
+    <col min="14331" max="14331" width="16.88671875" style="1" customWidth="1"/>
+    <col min="14332" max="14583" width="9" style="1"/>
+    <col min="14584" max="14584" width="18.6640625" style="1" customWidth="1"/>
+    <col min="14585" max="14585" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14586" max="14586" width="21.21875" style="1" customWidth="1"/>
+    <col min="14587" max="14587" width="16.88671875" style="1" customWidth="1"/>
+    <col min="14588" max="14839" width="9" style="1"/>
+    <col min="14840" max="14840" width="18.6640625" style="1" customWidth="1"/>
+    <col min="14841" max="14841" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14842" max="14842" width="21.21875" style="1" customWidth="1"/>
+    <col min="14843" max="14843" width="16.88671875" style="1" customWidth="1"/>
+    <col min="14844" max="15095" width="9" style="1"/>
+    <col min="15096" max="15096" width="18.6640625" style="1" customWidth="1"/>
+    <col min="15097" max="15097" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15098" max="15098" width="21.21875" style="1" customWidth="1"/>
+    <col min="15099" max="15099" width="16.88671875" style="1" customWidth="1"/>
+    <col min="15100" max="15351" width="9" style="1"/>
+    <col min="15352" max="15352" width="18.6640625" style="1" customWidth="1"/>
+    <col min="15353" max="15353" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15354" max="15354" width="21.21875" style="1" customWidth="1"/>
+    <col min="15355" max="15355" width="16.88671875" style="1" customWidth="1"/>
+    <col min="15356" max="15607" width="9" style="1"/>
+    <col min="15608" max="15608" width="18.6640625" style="1" customWidth="1"/>
+    <col min="15609" max="15609" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15610" max="15610" width="21.21875" style="1" customWidth="1"/>
+    <col min="15611" max="15611" width="16.88671875" style="1" customWidth="1"/>
+    <col min="15612" max="15863" width="9" style="1"/>
+    <col min="15864" max="15864" width="18.6640625" style="1" customWidth="1"/>
+    <col min="15865" max="15865" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15866" max="15866" width="21.21875" style="1" customWidth="1"/>
+    <col min="15867" max="15867" width="16.88671875" style="1" customWidth="1"/>
+    <col min="15868" max="16119" width="9" style="1"/>
+    <col min="16120" max="16120" width="18.6640625" style="1" customWidth="1"/>
+    <col min="16121" max="16121" width="14.6640625" style="1" customWidth="1"/>
+    <col min="16122" max="16122" width="21.21875" style="1" customWidth="1"/>
+    <col min="16123" max="16123" width="16.88671875" style="1" customWidth="1"/>
+    <col min="16124" max="16376" width="9" style="1"/>
+    <col min="16377" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" ht="28.8" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="10.199999999999999" customHeight="1"/>
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="10.199999999999999" customHeight="1"/>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="F4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>18</v>
+      <c r="K4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
